--- a/data/balance_sheet.xlsx
+++ b/data/balance_sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet sheetId="1" name="PDD" r:id="rId4"/>
+    <sheet sheetId="1" name="PINS" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -67,18 +67,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="62.7"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="50.6"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="17.6"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="16.5"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
@@ -89,22 +89,22 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44926.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44561.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43100.0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>42735.0</v>
       </c>
     </row>
     <row r="2">
@@ -114,22 +114,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>23940090000.0</v>
+        <v>2698227000.0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>21363180000.0</v>
+        <v>2480118000.0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>9858756000.0</v>
+        <v>1760306000.0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>5551651000.0</v>
+        <v>1713345000.0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1989446000.0</v>
+        <v>627813000.0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>233000000.0</v>
+        <v>712000000.0</v>
       </c>
     </row>
     <row r="3">
@@ -139,214 +139,194 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>772666000.0</v>
+        <v>681532000.0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>761627000.0</v>
+        <v>653355000.0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>490750000.0</v>
+        <v>563733000.0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>184222000.0</v>
+        <v>316367000.0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>84668000.0</v>
+        <v>221932000.0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>17000000.0</v>
+        <v>137000000.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Inventory</t>
+          <t>Other current assets</t>
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2000000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>263000000.0</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>47000000.0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>33000000.0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>35000000.0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>40000000.0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>39000000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Other current assets</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>373000000.0</v>
+        <v>3454677000.0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>422000000.0</v>
+        <v>3181563000.0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>100000000.0</v>
+        <v>2357541000.0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>109000000.0</v>
+        <v>2067234000.0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>7000000.0</v>
+        <v>889352000.0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3000000.0</v>
+        <v>887000000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Property, Plant, Equpment (Net)</t>
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>25250160000.0</v>
+        <v>59575000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>22915540000.0</v>
+        <v>53401000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10486000000.0</v>
+        <v>69375000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>5874625000.0</v>
+        <v>91992000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2094479000.0</v>
+        <v>81512000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>252000000.0</v>
+        <v>87000000.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Property, Plant, Equpment (Net)</t>
+          <t>Long-Term Investments</t>
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>345749000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>31089000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5928000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4229000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1479000.0</v>
+        <v>12000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.0</v>
+        <v>12000000.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Long-Term Investments</t>
+          <t>Goodwill and Intangible Assets (Total)</t>
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>309000000.0</v>
+        <v>124822000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>174000000.0</v>
+        <v>61115000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>62000000.0</v>
+        <v>13562000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>27000000.0</v>
+        <v>14576000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>26681000.0</v>
+        <v>14071000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>2000000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Goodwill and Intangible Assets (Total)</t>
+          <t>Long-term assets (Other)</t>
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>110037000.0</v>
+        <v>17403000.0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>195671000.0</v>
+        <v>13247000.0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>286462000.0</v>
+        <v>13065000.0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>375149000.0</v>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>31264000.0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>22593000.0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>178000000.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Long Term Assets (Tax, Deferred)</t>
+          <t>Total non-current assets</t>
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4944000.0</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>408053000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>355675000.0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>251918000.0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>326083000.0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>263379000.0</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -357,105 +337,97 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Long-term assets (Other)</t>
+          <t>Total Assets</t>
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2577593000.0</v>
+        <v>3862730000.0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1114989000.0</v>
+        <v>3537238000.0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>72269000.0</v>
+        <v>2609459000.0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>26568000.0</v>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2393317000.0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1152731000.0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Total non-current assets</t>
+          <t>Accounts Payable</t>
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3185600000.0</v>
+        <v>87920000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1438274000.0</v>
+        <v>17675000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>438948000.0</v>
+        <v>49491000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>405946000.0</v>
+        <v>34334000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>28160000.0</v>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22169000.0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>15000000.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Total Assets</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>28435760000.0</v>
+        <v>292611000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>24353810000.0</v>
+        <v>242131000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>10924950000.0</v>
+        <v>155340000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>6280571000.0</v>
+        <v>141823000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2122639000.0</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>255000000.0</v>
+        <v>86258000.0</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Notes Payable</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>Current Part of Debt</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>50000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>286025000.0</v>
+        <v>42000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>129097000.0</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>44000000.0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>47000000.0</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
@@ -471,210 +443,228 @@
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Accounts Payable</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>9808000000.0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>8232000000.0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>4296000000.0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>2516000000.0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1511000000.0</v>
+          <t>Current Part of Capital Lease</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>162000000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>2210324000.0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1715461000.0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>700547000.0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>323712000.0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>57455000.0</v>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>Current Part of Taxes to Pay</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Current Part of Debt</t>
+          <t>Other current liabilities</t>
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>67000000.0</v>
+        <v>242000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>324000000.0</v>
+        <v>200000000.0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>146000000.0</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>112000000.0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>95000000.0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>86000000.0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>64000000.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Current Part of Capital Lease</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>380531000.0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>259806000.0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>16624000.0</v>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>204831000.0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>176157000.0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>108427000.0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>80000000.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Other current liabilities</t>
+          <t>Long Term Debt (Total)</t>
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2313705000.0</v>
+        <v>179000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>2045902000.0</v>
+        <v>209000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1213319000.0</v>
+        <v>139000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>637009000.0</v>
+        <v>173000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>292469000.0</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>41000000.0</v>
+        <v>151000000.0</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>14708240000.0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>12855490000.0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>6574135000.0</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>3542940000.0</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1930540000.0</v>
+          <t>Non-current Revenue (Deferred)</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>204000000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Long Term Debt (Total)</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1849937000.0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>2211922000.0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>747893000.0</v>
+          <t>Long Term Tax Liability (Deferred)</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="F21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Long Term Tax Liability (Deferred)</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>4910000.0</v>
+          <t>Minority Interests</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
@@ -686,79 +676,65 @@
           <t/>
         </is>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>2000.0</v>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="G22" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Preferred Shares of Subsidiary (Mandatory, Redeemable)</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>Non-current Liabilities (Other)</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>21851000.0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>29508000.0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>22936000.0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>20063000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>350241000.0</v>
-      </c>
-      <c r="G23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22073000.0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>174000000.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Non-current Liabilities (Other)</t>
+          <t>Total non-current liabilities</t>
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>156000.0</v>
+        <v>200545000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>447000.0</v>
+        <v>238689000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1061000.0</v>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>162257000.0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>193455000.0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>173468000.0</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -769,82 +745,84 @@
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Total non-current liabilities</t>
+          <t>Total liabilities</t>
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1940410000.0</v>
+        <v>581076000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>2275961000.0</v>
+        <v>498495000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>810518000.0</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>367088000.0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>369612000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>350241000.0</v>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>281895000.0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Total liabilities</t>
+          <t>Additional Paid In Capital</t>
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>16648650000.0</v>
+        <v>5407724000.0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>15131450000.0</v>
+        <v>5059528000.0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>7384653000.0</v>
+        <v>4574934000.0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>3542940000.0</v>
+        <v>4229778000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2280781000.0</v>
+        <v>252212000.0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>204000000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Additional Paid In Capital</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>14961050000.0</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>13287150000.0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>5960233000.0</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>4234532000.0</v>
+          <t>Preferred Stock (Total)</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="F27" s="0" t="n">
-        <v>9777000.0</v>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>1465399000.0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -854,19 +832,19 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>25000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>24000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>21000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>20000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>8000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>0.0</v>
@@ -879,206 +857,305 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>-2778541000.0</v>
+        <v>-2114658000.0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>-3904246000.0</v>
+        <v>-2018611000.0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>-2627979000.0</v>
+        <v>-2335049000.0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-1647569000.0</v>
+        <v>-2206726000.0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>-164244000.0</v>
+        <v>-845355000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>-68000000.0</v>
+        <v>-782000000.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>Common Equity (Total)</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>11787110000.0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>9222358000.0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>3540300000.0</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>2737631000.0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>-158142000.0</v>
+          <t>Treasury Stock</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>-61000000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Shareholders Equity (Total)</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>11787110000.0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>9222358000.0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>3540300000.0</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>2737631000.0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>-158142000.0</v>
+          <t>Shareholders Equity (Other)</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>51000000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Shareholders Equity and Liabilities (Total)</t>
+          <t>Common Equity (Total)</t>
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>28435760000.0</v>
+        <v>3281654000.0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>24353810000.0</v>
+        <v>3038743000.0</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10924950000.0</v>
+        <v>2242371000.0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>6280571000.0</v>
+        <v>2023705000.0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2122639000.0</v>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-594563000.0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>-546000000.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>Shares (Common)</t>
+          <t>Shareholders Equity (Total)</t>
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1264386000.0</v>
+        <v>3281654000.0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1238703000.0</v>
+        <v>3038743000.0</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1162507000.0</v>
+        <v>2242371000.0</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1113922000.0</v>
+        <v>2023705000.0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>439692000.0</v>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>870836000.0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>Shareholders Equity (Tangible)</t>
+          <t>Shareholders Equity and Liabilities (Total)</t>
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>11677080000.0</v>
+        <v>3862730000.0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>9026687000.0</v>
+        <v>3537238000.0</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>3253838000.0</v>
+        <v>2609459000.0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>2362482000.0</v>
+        <v>2393317000.0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>-158142100.0</v>
-      </c>
-      <c r="G34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>1152731000.0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>Net Debt</t>
+          <t>Shares (Common)</t>
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-22023153000.0</v>
+        <v>683202000.0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>-18827258000.0</v>
+        <v>656872000.0</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>-8964863000.0</v>
+        <v>626372000.0</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>-5551651000.0</v>
+        <v>569904000.0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>-1989446000.0</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>-233000000.0</v>
+        <v>127298000.0</v>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
+          <t>Shares (Preferred)</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>308373000.0</v>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Shareholders Equity (Tangible)</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>3156832000.0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2977628000.0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2228809000.0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2009129000.0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>856765000.0</v>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Net Debt</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>-2469227000.0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>-2229118000.0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>-1577306000.0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>-1493345000.0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>-476813000.0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>-712000000.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>1916937000.0</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>2535922000.0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>893893000.0</v>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G36" s="0" t="inlineStr">
+      <c r="B39" s="0" t="n">
+        <v>229000000.0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>251000000.0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>183000000.0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>220000000.0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>151000000.0</v>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
